--- a/Team-Data/2013-14/4-15-2013-14.xlsx
+++ b/Team-Data/2013-14/4-15-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.543</v>
+        <v>0.55</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J4" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K4" t="n">
         <v>0.46</v>
       </c>
       <c r="L4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M4" t="n">
         <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
         <v>18.4</v>
@@ -1069,13 +1136,13 @@
         <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
         <v>38.2</v>
@@ -1084,13 +1151,13 @@
         <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>8.6</v>
       </c>
       <c r="X4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
@@ -1099,16 +1166,16 @@
         <v>21.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB4" t="n">
         <v>98.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1144,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1162,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>5</v>
@@ -1183,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1326,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>0.45</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,7 +2025,7 @@
         <v>38.4</v>
       </c>
       <c r="J9" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K9" t="n">
         <v>0.447</v>
@@ -1967,25 +2034,25 @@
         <v>8.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.724</v>
+        <v>0.721</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
         <v>45.5</v>
@@ -1994,7 +2061,7 @@
         <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2015,25 +2082,25 @@
         <v>104.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
         <v>82.40000000000001</v>
@@ -2880,10 +2947,10 @@
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
         <v>29</v>
@@ -2922,13 +2989,13 @@
         <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3395,7 @@
         <v>30</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -3486,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.444</v>
+        <v>0.438</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.449</v>
@@ -4154,16 +4221,16 @@
         <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P21" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4175,7 +4242,7 @@
         <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
         <v>12.9</v>
@@ -4196,22 +4263,22 @@
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4220,7 +4287,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4235,13 +4302,13 @@
         <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2013-14</t>
+          <t>2014-04-15</t>
         </is>
       </c>
     </row>
